--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3912.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3912.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.581572976712114</v>
+        <v>2.289955139160156</v>
       </c>
       <c r="B1">
-        <v>2.087876737913458</v>
+        <v>2.527620792388916</v>
       </c>
       <c r="C1">
-        <v>3.306445386886225</v>
+        <v>2.610470771789551</v>
       </c>
       <c r="D1">
-        <v>7.792199832935029</v>
+        <v>3.329218626022339</v>
       </c>
       <c r="E1">
-        <v>0.9284883330376222</v>
+        <v>2.45249605178833</v>
       </c>
     </row>
   </sheetData>
